--- a/biology/Zoologie/Cotylorhiza/Cotylorhiza.xlsx
+++ b/biology/Zoologie/Cotylorhiza/Cotylorhiza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cotylorhiza est un genre de méduses, de la famille des Cepheidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grosses méduses inoffensives. Elles sont pourvues d'une grande ombrelle charnue et de bras oraux épais et complexes. L'ombrelle est caractérisée par une importante dépression centrale, d'où émerge un dôme lisse, caractéristique du genre. Les bras buccaux sont équipés de petites ventouses au bout de tentacules[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grosses méduses inoffensives. Elles sont pourvues d'une grande ombrelle charnue et de bras oraux épais et complexes. L'ombrelle est caractérisée par une importante dépression centrale, d'où émerge un dôme lisse, caractéristique du genre. Les bras buccaux sont équipés de petites ventouses au bout de tentacules.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 mars 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 mars 2015) :
 Cotylorhiza ambulacrata Haeckel, 1880 — Atlantique est
 Cotylorhiza erythraea — Mer Rouge
 Cotylorhiza paciifica Mayer, 1915 (nomen dubium)
